--- a/Surf/2.xlsx
+++ b/Surf/2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="4" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Контакты</t>
   </si>
@@ -92,18 +92,6 @@
     <t>Списать бонусы</t>
   </si>
   <si>
-    <t xml:space="preserve">На вашем счету бонусов:  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Людей зарегестрировалось по вашей ссылке:  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Людей оплатило тур по вашей ссылке:  </t>
-  </si>
-  <si>
-    <t>Сменить email</t>
-  </si>
-  <si>
     <t>Укажите сумму которую хотите списать, 0 если отменить списание.</t>
   </si>
   <si>
@@ -152,15 +140,9 @@
     <t>Бонусы можно потратить на поездку 1 к 1, для этого в комментарии при регистрации надо ввести текст «умоляю списать с меня Х бонусов» в счет поездки.</t>
   </si>
   <si>
-    <t>Помощь</t>
-  </si>
-  <si>
     <t>Информация по помощи</t>
   </si>
   <si>
-    <t>Регистрация на поездку</t>
-  </si>
-  <si>
     <t>Для автозаполнения основных данных из вашего аккаунта гелеграмм нажмите на кнопку "Отправить контакт". Я возьму имя, фамилию и телефон. Если хотите ввести данные вручную, то нажмите на кнопку "Ручная регистрачия"</t>
   </si>
   <si>
@@ -182,9 +164,6 @@
     <t>Введите свой телефон</t>
   </si>
   <si>
-    <t xml:space="preserve">Ваш телефон:  </t>
-  </si>
-  <si>
     <t>Введите email</t>
   </si>
   <si>
@@ -192,6 +171,30 @@
   </si>
   <si>
     <t>Нажмите на "Отправить контакт" или введите номер телефона.</t>
+  </si>
+  <si>
+    <t>Ваш email:</t>
+  </si>
+  <si>
+    <t>F.A.Q.</t>
+  </si>
+  <si>
+    <t>Забронировать</t>
+  </si>
+  <si>
+    <t>Сменить телефон</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Накоплено бонусов:  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Людей зарегестрировалось по твоей ссылке:  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Людей оплатило тур по твоей ссылке:  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Твой телефон:  </t>
   </si>
 </sst>
 </file>
@@ -533,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A58"/>
+  <dimension ref="A1:A59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,7 +549,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -656,7 +659,7 @@
     </row>
     <row r="23" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
@@ -666,7 +669,7 @@
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="45" x14ac:dyDescent="0.25">
@@ -681,157 +684,162 @@
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Surf/2.xlsx
+++ b/Surf/2.xlsx
@@ -143,9 +143,6 @@
     <t>Информация по помощи</t>
   </si>
   <si>
-    <t>Для автозаполнения основных данных из вашего аккаунта гелеграмм нажмите на кнопку "Отправить контакт". Я возьму имя, фамилию и телефон. Если хотите ввести данные вручную, то нажмите на кнопку "Ручная регистрачия"</t>
-  </si>
-  <si>
     <t>Ручная регистрация</t>
   </si>
   <si>
@@ -170,9 +167,6 @@
     <t>Вам начислены бонусы!</t>
   </si>
   <si>
-    <t>Нажмите на "Отправить контакт" или введите номер телефона.</t>
-  </si>
-  <si>
     <t>Ваш email:</t>
   </si>
   <si>
@@ -195,6 +189,12 @@
   </si>
   <si>
     <t xml:space="preserve">Твой телефон:  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Для автозаполнения основных данных из вашего аккаунта гелеграмм нажмите на кнопку "Отправить контакт". Я возьму имя, фамилию и телефон. </t>
+  </si>
+  <si>
+    <t>Нажмите на "Отправить контакт" .</t>
   </si>
 </sst>
 </file>
@@ -538,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,7 +669,7 @@
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="45" x14ac:dyDescent="0.25">
@@ -684,27 +684,27 @@
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="30" x14ac:dyDescent="0.25">
@@ -779,7 +779,7 @@
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
@@ -789,57 +789,57 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Surf/2.xlsx
+++ b/Surf/2.xlsx
@@ -110,9 +110,6 @@
     <t>захотел списать бонусы:</t>
   </si>
   <si>
-    <t>Вот тексты бота, исправте их и отошлите их мне</t>
-  </si>
-  <si>
     <t xml:space="preserve">Вот таблица туров внесите изменения и отошлите мне </t>
   </si>
   <si>
@@ -195,6 +192,9 @@
   </si>
   <si>
     <t>Нажмите на "Отправить контакт" .</t>
+  </si>
+  <si>
+    <t>Вот туры бота, исправте их и отошлите их мне</t>
   </si>
 </sst>
 </file>
@@ -538,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,7 +549,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -659,7 +659,7 @@
     </row>
     <row r="23" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
@@ -669,7 +669,7 @@
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="45" x14ac:dyDescent="0.25">
@@ -684,27 +684,27 @@
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="30" x14ac:dyDescent="0.25">
@@ -739,107 +739,107 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
